--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2454957.909440133</v>
+        <v>2530487.579104938</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>164.4312074590976</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>280.3612400821509</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>90.99166070001817</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>90.53841902918154</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>90.23812805649659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>9.224012674985888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>399.3976635617693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>73.52907136089628</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>43.63030091584125</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.6725772032749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>16.00705914582165</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.41159191917695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051981</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>132.2862074358171</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>135.5535868730191</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>30.15452024383404</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,13 +2134,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>58.15409578032135</v>
+        <v>3.347695664763696</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>255.7709849266059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056519</v>
+        <v>214.0236273888496</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.8388016343885</v>
       </c>
       <c r="C31" t="n">
-        <v>5.562624396425368</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23.79624476519389</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>186.4789965863265</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.73664328357105</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>209.1695767361646</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>129.4106056624399</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980186034</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>44.17438723742966</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="D2" t="n">
         <v>1363.553390680693</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2140.292562720626</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2140.292562720626</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>2140.292562720626</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.4256366790474</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>636.2182158225775</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.4256366790474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>570.3052391857059</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>159.3193343960983</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>145.3959303346892</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>145.3959303346892</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.2708856551153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>184.2708856551153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2708856551153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551153</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551153</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551153</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757444</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>471.2983692775002</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2567.848612295285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>506.4943954681378</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>506.4943954681378</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>506.4943954681378</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>358.5813018857447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>506.4943954681378</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>506.4943954681378</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>506.4943954681378</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>506.4943954681378</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>506.4943954681378</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X10" t="n">
-        <v>506.4943954681378</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.4943954681378</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="11">
@@ -5036,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,28 +5056,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>576.3642008327098</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240057</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X13" t="n">
-        <v>468.5954956259884</v>
+        <v>758.0126656629495</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7555037884359</v>
+        <v>758.0126656629495</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5270,19 +5272,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5305,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.8632439327646</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1365.293838804552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1137.304287906534</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.5117087630043</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,10 +5536,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5668,7 +5670,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1468.457159200494</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1268.537149116047</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1044.751733905552</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1044.751733905552</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.751733905552</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>755.3345638685918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="20">
@@ -5747,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>905.3942309355725</v>
+        <v>4633.68764703131</v>
       </c>
       <c r="V22" t="n">
-        <v>905.3942309355725</v>
+        <v>4379.003158825423</v>
       </c>
       <c r="W22" t="n">
-        <v>615.9770608986119</v>
+        <v>4089.585988788463</v>
       </c>
       <c r="X22" t="n">
-        <v>615.9770608986119</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6002,13 +6004,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>4089.585988788462</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>3861.596437890445</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336716</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.8359039819276</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6658,13 +6660,13 @@
         <v>620.2426249169056</v>
       </c>
       <c r="W31" t="n">
-        <v>330.825454879945</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X31" t="n">
-        <v>102.8359039819276</v>
+        <v>392.2530740188882</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.8359039819276</v>
+        <v>392.2530740188882</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,16 +6694,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,19 +6767,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6795,10 +6797,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.4344461847504</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C34" t="n">
-        <v>701.4982632568435</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D34" t="n">
-        <v>551.3816238445078</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>1387.841167119728</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="W34" t="n">
-        <v>1098.423997082768</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="X34" t="n">
-        <v>870.4344461847504</v>
+        <v>597.7195836620479</v>
       </c>
       <c r="Y34" t="n">
-        <v>870.4344461847504</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7034,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.068505649155</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1323227212481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0156833089123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>112.1025897265192</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557903</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229249</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793947</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,19 +7241,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7269,10 +7271,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>752.8533410811858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V40" t="n">
-        <v>498.168852875299</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W40" t="n">
-        <v>208.7516828383384</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X40" t="n">
-        <v>208.7516828383384</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.7516828383384</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7387,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491672</v>
+        <v>4685.107289084366</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281178</v>
+        <v>4461.321873873871</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.945405494736</v>
+        <v>4172.193235087429</v>
       </c>
       <c r="V43" t="n">
-        <v>3782.26091728885</v>
+        <v>3917.508746881542</v>
       </c>
       <c r="W43" t="n">
-        <v>3492.843747251889</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916677</v>
+        <v>3628.091576844582</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916677</v>
+        <v>3628.091576844582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
         <v>1701.093169003442</v>
@@ -7634,22 +7636,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1454.295677388782</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1230.510262178288</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>1230.510262178288</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>975.825773972401</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>975.825773972401</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
-        <v>747.8362230743836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>180.0237016735864</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>285.1031356539324</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>151.2397619528062</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.1730614329178</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>154.2367909007739</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>44.27839330891823</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>79.80983215995875</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>228.083256618256</v>
+        <v>282.8896567338136</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>30.7520134099851</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338525</v>
+        <v>11.68602800018755</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.99317854754878</v>
       </c>
       <c r="C31" t="n">
-        <v>161.6841967022025</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.6377178813753</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>65.65864673750147</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393602</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709094</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>77.06777566241271</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>96.29904972659722</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>23.93099889297633</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871768</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.7464227461736</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>815867.4483931669</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
   </sheetData>
@@ -26314,43 +26316,43 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196782</v>
       </c>
       <c r="I2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="L2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="M2" t="n">
         <v>566992.1366196782</v>
       </c>
-      <c r="J2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196778</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196782</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196779</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26436,25 +26438,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
         <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26476,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26487,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-234346.6323775717</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369725</v>
+        <v>355621.2468369727</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369729</v>
+        <v>355621.2468369727</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.8954273738</v>
+        <v>-65200.89542737436</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.1410495223</v>
+        <v>459959.1410495226</v>
       </c>
       <c r="G6" t="n">
+        <v>459959.1410495222</v>
+      </c>
+      <c r="H6" t="n">
+        <v>459959.1410495225</v>
+      </c>
+      <c r="I6" t="n">
         <v>459959.141049522</v>
-      </c>
-      <c r="H6" t="n">
-        <v>459959.1410495226</v>
-      </c>
-      <c r="I6" t="n">
-        <v>459959.1410495226</v>
       </c>
       <c r="J6" t="n">
         <v>283535.921856929</v>
       </c>
       <c r="K6" t="n">
+        <v>459959.1410495223</v>
+      </c>
+      <c r="L6" t="n">
+        <v>459959.141049522</v>
+      </c>
+      <c r="M6" t="n">
+        <v>325158.1258156854</v>
+      </c>
+      <c r="N6" t="n">
         <v>459959.1410495222</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>459959.1410495223</v>
       </c>
-      <c r="M6" t="n">
-        <v>325158.1258156851</v>
-      </c>
-      <c r="N6" t="n">
-        <v>459959.141049522</v>
-      </c>
-      <c r="O6" t="n">
-        <v>459959.1410495225</v>
-      </c>
       <c r="P6" t="n">
-        <v>459959.1410495221</v>
+        <v>459959.1410495222</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26817,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>190.2518341615853</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>47.39101838798405</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>121.1538782500007</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>61.39289721567971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.999810599557</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.40933785016585</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>202.921526275033</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.478382179942116</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>296.2020293175727</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>168.5152380341777</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>62.85042113331613</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>138.3897561047526</v>
@@ -35264,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>513.2182750715994</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221117</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
@@ -35981,7 +35983,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109124</v>
@@ -37163,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951473</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560244</v>
@@ -37868,19 +37870,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>618.2977090519454</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>483.6693559063405</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504664</v>
@@ -38111,7 +38113,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2530487.579104938</v>
+        <v>2523470.564213228</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>164.4312074590976</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>347.1162740824317</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>90.99166070001817</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>90.53841902918154</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>141.4106407312797</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.224012674985888</v>
+        <v>17.36390763391859</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>60.46179076613073</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>73.52907136089628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.78350070179</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>223.6725772032749</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>16.00705914582165</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>51.20625352634689</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.5535868730191</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>58.10787979179661</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.347695664763696</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>128.1030440753053</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.0236273888496</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.8388016343885</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>186.4789965863265</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>206.8064269214864</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>129.4106056624399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.9898110906269</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1529.645519427256</v>
+        <v>1542.779601230297</v>
       </c>
       <c r="C2" t="n">
-        <v>1529.645519427256</v>
+        <v>1173.817084289886</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>815.5513856831353</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>815.5513856831353</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>404.5654808935278</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4366,16 +4366,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="X2" t="n">
-        <v>1916.245359491378</v>
+        <v>1542.779601230297</v>
       </c>
       <c r="Y2" t="n">
-        <v>1916.245359491378</v>
+        <v>1542.779601230297</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.4256366790474</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511405</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511405</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>636.2182158225775</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>636.2182158225775</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>636.2182158225775</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>636.2182158225775</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>636.2182158225775</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X4" t="n">
-        <v>636.2182158225775</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.4256366790474</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.359190390701</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>956.0934917839502</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>570.3052391857059</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>159.3193343960983</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>145.3959303346892</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>145.3959303346892</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>570.6651411204305</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="T7" t="n">
-        <v>570.6651411204305</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="U7" t="n">
-        <v>570.6651411204305</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="V7" t="n">
-        <v>570.6651411204305</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="W7" t="n">
-        <v>281.2479710834698</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="X7" t="n">
-        <v>281.2479710834698</v>
+        <v>710.5896835661124</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.2479710834698</v>
+        <v>710.5896835661124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>494.1501011631121</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>135.8844025563616</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>128.9389018071581</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.015497745749</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>115.015497745749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2567.848612295285</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>2177.709280319473</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>576.3642008327098</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>758.0126656629495</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>758.0126656629495</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>467.9934022109799</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>299.057219283073</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>148.9405798707373</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>649.6418670412196</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5509,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,31 +5536,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>583.2726413366775</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632138</v>
+        <v>414.3364584087706</v>
       </c>
       <c r="D19" t="n">
-        <v>822.148054050878</v>
+        <v>414.3364584087706</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>414.3364584087706</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>267.4465109108602</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>267.4465109108602</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>985.7136853104473</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.123691414372</v>
+        <v>764.9211061669172</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,49 +5737,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4633.68764703131</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>4379.003158825423</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>4089.585988788463</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890445</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,16 +6001,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6296,34 +6296,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3978353108171</v>
+        <v>804.3537517307267</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4616523829102</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352016</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X28" t="n">
-        <v>1028.046300141057</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="Y28" t="n">
-        <v>1028.046300141057</v>
+        <v>986.0022165609664</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6463,28 +6463,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227924</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>620.2426249169056</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>620.2426249169056</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>392.2530740188882</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.2530740188882</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>597.7195836620479</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>597.7195836620479</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>597.7195836620479</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352016</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.231782352016</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.513998854602</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4685.107289084366</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4461.321873873871</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4172.193235087429</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>3917.508746881542</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>3628.091576844582</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>3628.091576844582</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>3628.091576844582</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954972</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>180.0237016735864</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>253.7371603504748</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>151.2397619528062</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>95.22770912022227</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>90.80594857573952</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>282.8896567338136</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>39.14377702332254</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>11.68602800018755</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.99317854754878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>27.33984058837402</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>65.65864673750147</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>79.43092547709094</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.29904972659722</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>23.93099889297633</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931665</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
         <v>566992.1366196782</v>
@@ -26334,25 +26334,25 @@
         <v>566992.1366196782</v>
       </c>
       <c r="I2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.1366196778</v>
       </c>
-      <c r="J2" t="n">
-        <v>566992.1366196775</v>
-      </c>
       <c r="K2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="L2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="M2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196779</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26441,22 +26441,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775717</v>
+        <v>-234346.6323775716</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369727</v>
+        <v>355621.2468369729</v>
       </c>
       <c r="D6" t="n">
-        <v>355621.2468369727</v>
+        <v>355621.246836973</v>
       </c>
       <c r="E6" t="n">
-        <v>-65200.89542737436</v>
+        <v>-66175.48668709538</v>
       </c>
       <c r="F6" t="n">
-        <v>459959.1410495226</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="G6" t="n">
-        <v>459959.1410495222</v>
+        <v>458984.5497898005</v>
       </c>
       <c r="H6" t="n">
-        <v>459959.1410495225</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="I6" t="n">
-        <v>459959.141049522</v>
+        <v>458984.5497898005</v>
       </c>
       <c r="J6" t="n">
-        <v>283535.921856929</v>
+        <v>282561.3305972078</v>
       </c>
       <c r="K6" t="n">
-        <v>459959.1410495223</v>
+        <v>458984.5497898008</v>
       </c>
       <c r="L6" t="n">
-        <v>459959.141049522</v>
+        <v>458984.5497898007</v>
       </c>
       <c r="M6" t="n">
-        <v>325158.1258156854</v>
+        <v>324183.5345559631</v>
       </c>
       <c r="N6" t="n">
-        <v>459959.1410495222</v>
+        <v>458984.5497898005</v>
       </c>
       <c r="O6" t="n">
-        <v>459959.1410495223</v>
+        <v>458984.5497898004</v>
       </c>
       <c r="P6" t="n">
-        <v>459959.1410495222</v>
+        <v>458984.5497898005</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>190.2518341615853</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66.6678959383633</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>51.36731581839018</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>121.1538782500007</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>61.39289721567971</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>75.03767962637809</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>202.921526275033</v>
+        <v>194.7816313161003</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>91.46952547873053</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>296.2020293175727</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>62.85042113331613</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31524,7 +31524,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,7 +31536,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>513.2182750715994</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819994</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,19 +36369,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,19 +36448,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063405</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523470.564213228</v>
+        <v>2528409.827062259</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>206.3464634862255</v>
       </c>
       <c r="G2" t="n">
-        <v>347.1162740824317</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.59830597394804</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>153.8564357574052</v>
       </c>
       <c r="T5" t="n">
-        <v>141.4106407312797</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.36390763391859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>60.46179076613073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.78350070179</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>155.8385935972305</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>104.435614114766</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>51.20625352634689</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.562624396424693</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>58.10787979179661</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>239.5776277741639</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.895256723152</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>128.1030440753053</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>137.5987868082958</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>33.35146980185922</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>11.84214567871243</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>188.1607094910713</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>127.9288390426638</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.779601230297</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="C2" t="n">
         <v>1173.817084289886</v>
       </c>
       <c r="D2" t="n">
-        <v>815.5513856831353</v>
+        <v>815.5513856831358</v>
       </c>
       <c r="E2" t="n">
-        <v>815.5513856831353</v>
+        <v>429.7631330848915</v>
       </c>
       <c r="F2" t="n">
-        <v>404.5654808935278</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4366,16 +4366,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491377</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491377</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230297</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1542.779601230297</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>138.3857151273827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>138.3857151273827</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>138.3857151273827</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.3857151273827</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,10 +4591,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2541.738549849126</v>
       </c>
       <c r="T5" t="n">
         <v>2323.103882821189</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>710.5896835661124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>710.5896835661124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>710.5896835661124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>710.5896835661124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>710.5896835661124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>710.5896835661124</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>710.5896835661124</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>710.5896835661124</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>710.5896835661124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.5896835661124</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631121</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563616</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8844025563616</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9389018071581</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>115.015497745749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>115.015497745749</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5123,19 +5123,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>254.6298122655692</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>467.9934022109799</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>299.057219283073</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>148.9405798707373</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>870.4344461847497</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y16" t="n">
-        <v>649.6418670412196</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,7 +5509,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,37 +5527,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5597,19 +5597,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>583.2726413366775</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C19" t="n">
-        <v>414.3364584087706</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D19" t="n">
-        <v>414.3364584087706</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E19" t="n">
-        <v>414.3364584087706</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>267.4465109108602</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>267.4465109108602</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1256.918666745616</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1002.234178539729</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104473</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="X19" t="n">
-        <v>985.7136853104473</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y19" t="n">
-        <v>764.9211061669172</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="20">
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5995,7 +5995,7 @@
         <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6177,16 +6177,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514087</v>
@@ -6238,40 +6238,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>804.3537517307267</v>
+        <v>554.4977260965342</v>
       </c>
       <c r="C28" t="n">
-        <v>674.9567375132466</v>
+        <v>554.4977260965342</v>
       </c>
       <c r="D28" t="n">
-        <v>524.8400981009108</v>
+        <v>404.3810866841984</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980069</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119733</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035285</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247912</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247912</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247912</v>
       </c>
       <c r="W28" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247912</v>
       </c>
       <c r="X28" t="n">
-        <v>986.0022165609664</v>
+        <v>736.1461909267739</v>
       </c>
       <c r="Y28" t="n">
-        <v>986.0022165609664</v>
+        <v>736.1461909267739</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,34 +6685,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,10 +6724,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>1006.272692205041</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>837.336509277134</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>687.2198698647983</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>539.3067762824052</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>1187.921157035281</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,61 +7165,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>523.4447279085762</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>373.3280884962404</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>373.3280884962404</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>226.4381409983301</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>692.3809108364831</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364831</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7833,22 +7833,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>253.7371603504748</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445214</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.65497486614709</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>95.22770912022227</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.0220289556701</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>90.80594857573952</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>46.65972462441343</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.3420956754253</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>39.14377702332254</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>8.835175838273386</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>27.33984058837402</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>133.5789023442188</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,7 +25602,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>33.3868515673179</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>38.56472942071382</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>815867.4483931665</v>
+        <v>815867.4483931666</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>815867.4483931668</v>
+        <v>815867.4483931669</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>815867.4483931666</v>
+        <v>815867.4483931668</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516051</v>
@@ -26325,10 +26325,10 @@
         <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196782</v>
@@ -26337,25 +26337,25 @@
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196782</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196782</v>
       </c>
     </row>
     <row r="3">
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26450,13 +26450,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26487,19 +26487,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234346.6323775716</v>
+        <v>-234346.6323775718</v>
       </c>
       <c r="C6" t="n">
-        <v>355621.2468369729</v>
+        <v>355621.2468369728</v>
       </c>
       <c r="D6" t="n">
         <v>355621.246836973</v>
       </c>
       <c r="E6" t="n">
-        <v>-66175.48668709538</v>
+        <v>-65298.35455334591</v>
       </c>
       <c r="F6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235501</v>
       </c>
       <c r="G6" t="n">
-        <v>458984.5497898005</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="H6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235504</v>
       </c>
       <c r="I6" t="n">
-        <v>458984.5497898005</v>
+        <v>459861.6819235499</v>
       </c>
       <c r="J6" t="n">
-        <v>282561.3305972078</v>
+        <v>283438.4627309572</v>
       </c>
       <c r="K6" t="n">
-        <v>458984.5497898008</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="L6" t="n">
-        <v>458984.5497898007</v>
+        <v>459861.6819235503</v>
       </c>
       <c r="M6" t="n">
-        <v>324183.5345559631</v>
+        <v>325060.6666897127</v>
       </c>
       <c r="N6" t="n">
-        <v>458984.5497898005</v>
+        <v>459861.68192355</v>
       </c>
       <c r="O6" t="n">
-        <v>458984.5497898004</v>
+        <v>459861.6819235497</v>
       </c>
       <c r="P6" t="n">
-        <v>458984.5497898005</v>
+        <v>459861.6819235505</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,10 +26813,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>200.5295822554859</v>
       </c>
       <c r="G2" t="n">
-        <v>66.6678959383633</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>51.36731581839018</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>20.55927705156634</v>
       </c>
       <c r="T5" t="n">
-        <v>75.03767962637809</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>194.7816313161003</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>91.46952547873053</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>75.23878421646982</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401877</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-7.895555166631037e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>460.8305752819994</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206078</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
